--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_18-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_18-35.xlsx
@@ -32,15 +32,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -69,9 +75,6 @@
   </si>
   <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>29:0</t>
   </si>
   <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
@@ -970,7 +973,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -996,11 +999,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1022,11 +1025,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1034,7 +1037,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1042,17 +1045,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1060,7 +1063,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1068,13 +1071,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -1086,7 +1089,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1094,13 +1097,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1112,7 +1115,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1120,17 +1123,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1138,7 +1141,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1146,17 +1149,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1178,11 +1181,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1198,17 +1201,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>47.039999999999999</v>
+        <v>138</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1216,7 +1219,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1224,17 +1227,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>49</v>
+        <v>47.039999999999999</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1242,7 +1245,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1250,17 +1253,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1276,17 +1279,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1294,7 +1297,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1302,7 +1305,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1320,7 +1323,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1328,13 +1331,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1354,17 +1357,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1380,17 +1383,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>-220</v>
+        <v>52</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1406,13 +1409,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>-60</v>
+        <v>-220</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1424,7 +1427,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1432,13 +1435,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>26</v>
+        <v>-60</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1464,7 +1467,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1484,17 +1487,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>147.5</v>
+        <v>46</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1510,17 +1513,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>52</v>
+        <v>147.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1536,17 +1539,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1562,17 +1565,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1588,17 +1591,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>30.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1614,17 +1617,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1632,7 +1635,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1640,17 +1643,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1658,7 +1661,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1666,17 +1669,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1692,17 +1695,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1718,17 +1721,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1744,17 +1747,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1770,13 +1773,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1796,17 +1799,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1814,7 +1817,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1822,17 +1825,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1848,17 +1851,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1874,17 +1877,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1900,17 +1903,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1918,7 +1921,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1926,17 +1929,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1952,17 +1955,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1978,17 +1981,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2004,13 +2007,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2030,13 +2033,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2056,17 +2059,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2074,7 +2077,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2082,17 +2085,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2100,7 +2103,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2108,13 +2111,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2134,17 +2137,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2160,17 +2163,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2186,17 +2189,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2204,7 +2207,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2212,17 +2215,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2238,17 +2241,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2264,13 +2267,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2290,13 +2293,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2316,17 +2319,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2342,17 +2345,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2368,17 +2371,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20.399999999999999</v>
+        <v>69</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2386,7 +2389,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2394,17 +2397,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>26</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2412,7 +2415,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2420,17 +2423,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2446,17 +2449,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2464,7 +2467,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2472,13 +2475,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2498,17 +2501,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2524,17 +2527,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>17.100000000000001</v>
+        <v>80</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2542,7 +2545,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2550,17 +2553,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>23</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2576,13 +2579,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2602,17 +2605,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2628,17 +2631,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2654,13 +2657,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2680,13 +2683,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2706,13 +2709,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2732,13 +2735,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2758,17 +2761,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2784,17 +2787,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>34</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2802,7 +2805,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2810,13 +2813,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>-375</v>
+        <v>34</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2836,13 +2839,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>50</v>
+        <v>-375</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2862,17 +2865,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2888,17 +2891,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2914,17 +2917,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>13.880000000000001</v>
+        <v>40</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2932,7 +2935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2940,17 +2943,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>2</v>
+        <v>13.880000000000001</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2966,13 +2969,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2992,17 +2995,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>36</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3018,17 +3021,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3044,13 +3047,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3062,7 +3065,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3070,13 +3073,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3096,13 +3099,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3122,13 +3125,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3148,13 +3151,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3174,13 +3177,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3200,51 +3203,77 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="K91" s="10">
-        <v>3417.8299999999999</v>
-      </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="11">
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
+        <v>120</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
         <v>121</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c t="s" r="F92" s="12">
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>45</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c t="s" r="N91" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" ht="26.25" customHeight="1">
+      <c r="K92" s="10">
+        <v>3432.8299999999999</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="11">
         <v>122</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c t="s" r="I92" s="14">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c t="s" r="F93" s="12">
         <v>123</v>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c t="s" r="I93" s="14">
+        <v>124</v>
+      </c>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="275">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3513,10 +3542,13 @@
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:N93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
